--- a/jacobi/src/test/resources/jacobi/test/data/StandardSimplexTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/StandardSimplexTest.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-2805" yWindow="240" windowWidth="27735" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="2370" yWindow="1650" windowWidth="27735" windowHeight="12570" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Dantzigs Rule 5x6" sheetId="1" r:id="rId1"/>
     <sheet name="Aux problem 4x5" sheetId="5" r:id="rId2"/>
     <sheet name="Aux Infeasible Problem 5x6" sheetId="2" r:id="rId3"/>
     <sheet name="Aux feasible Problem 4x6" sheetId="4" r:id="rId4"/>
-    <sheet name="rand" sheetId="3" r:id="rId5"/>
+    <sheet name="Unbounded Problem 4x5" sheetId="6" r:id="rId5"/>
+    <sheet name="rand" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'Aux feasible Problem 4x6'!$E$2:$H$2</definedName>
@@ -131,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
   <si>
     <t>#0</t>
   </si>
@@ -780,7 +781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U124"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23:E28"/>
     </sheetView>
   </sheetViews>
@@ -4553,8 +4554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9140,7 +9141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
@@ -12424,10 +12425,127 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-0.32967137169493499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-6.3991296531579245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3.2094332575090689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11.773657987074962</v>
+      </c>
+      <c r="B9">
+        <v>8.0460893681848908</v>
+      </c>
+      <c r="C9">
+        <v>-6.958583352602675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.25426877886176591</v>
+      </c>
+      <c r="B10">
+        <v>-3.4977592112863292</v>
+      </c>
+      <c r="C10">
+        <v>-6.6910766712737857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2.9113622194734923</v>
+      </c>
+      <c r="B11">
+        <v>0.10007437355657345</v>
+      </c>
+      <c r="C11">
+        <v>-2.8952729654759</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12.935231429535438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10.718743384475779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5.4441545481127509</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F9:F11"/>
+      <selection activeCell="K8" sqref="K8:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12435,1151 +12553,1151 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*20-7</f>
-        <v>9.8004783786494301</v>
+        <v>-3.8329164439609036</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:K16" ca="1" si="0">RAND()*20-7</f>
-        <v>8.734267228842814</v>
+        <v>7.0197041872863046</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8409428334523472</v>
+        <v>6.5391796505867035</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>11.265926570582636</v>
+        <v>9.9922412889631396</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>10.687742453878808</v>
+        <v>-6.2787724562050649</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0221333658627216</v>
+        <v>4.4716005779787942</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.9324669796027125</v>
+        <v>1.306140287907537</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7870870082050665</v>
+        <v>-4.3497278746342847</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.417487376022434</v>
+        <v>0.93629899914234116</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5815177897852291</v>
+        <v>11.873475782524128</v>
       </c>
       <c r="K1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2255972592319946</v>
+        <v>3.0554466457979004</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:K25" ca="1" si="1">RAND()*20-7</f>
-        <v>12.755446968286115</v>
+        <v>7.0695987280056833</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.7908072585076953</v>
+        <v>10.809246728324414</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0459338342949289</v>
+        <v>8.6391561265207848</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4404447890265661</v>
+        <v>6.7849659153073851</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.380081000229759</v>
+        <v>3.0613787656164959</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52834660061339367</v>
+        <v>12.843128177355734</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>12.599962779865692</v>
+        <v>12.830742486047626</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2243186107106716</v>
+        <v>-5.3181338739700745</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.2874762534631294</v>
+        <v>11.07956807640586</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1414673173999841</v>
+        <v>3.585771203809184</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7692372926213853</v>
+        <v>11.075507314811556</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32522684528780221</v>
+        <v>5.6007350914694172</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.130937471124458</v>
+        <v>-3.2556290566038619</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8309182019253818</v>
+        <v>-1.5796387669705556</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3784426963351439</v>
+        <v>7.4154150534370409</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.5946335051890443</v>
+        <v>-3.6916272245739927</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.0896633182430602</v>
+        <v>-0.52006663912233897</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.6461621730132148</v>
+        <v>-6.9460823711063444</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>12.324716371413569</v>
+        <v>1.9176116872367643</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.6599012576281247</v>
+        <v>11.272636935156022</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5523102320051478</v>
+        <v>5.7480455559013262</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9391745235610003</v>
+        <v>8.7251765557545653</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.9580085663266651</v>
+        <v>-0.54156783336492254</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>12.218502626522639</v>
+        <v>7.7968019911605797</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>11.393211992140934</v>
+        <v>5.1843103593521391</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6218782059457961</v>
+        <v>6.2363457787565313</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7214499209154557</v>
+        <v>6.3205758134314003</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0427830331661525</v>
+        <v>11.166902978280266</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7438948854569869</v>
+        <v>-4.2851569482155636</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.976255360878131</v>
+        <v>4.564355462222407</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8782101956531658</v>
+        <v>6.7347036127572064</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6864226957435893</v>
+        <v>5.8275116159282483</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6692366090287987</v>
+        <v>-3.4168588320550768</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.3917867241425359</v>
+        <v>11.508457428874298</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7968453248852558</v>
+        <v>2.5079539460841982</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>10.311726894702776</v>
+        <v>6.6596729608774723</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7681511333817461</v>
+        <v>-2.2406783386789213</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.3399550455159659</v>
+        <v>12.864241869032373</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.3221602110803516</v>
+        <v>9.8025552588957545</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>11.077966579556481</v>
+        <v>12.042725683863225</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>11.101720378803016</v>
+        <v>-1.6688617162417012</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.7179838236173</v>
+        <v>-1.5397043737896876</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2288070151372681</v>
+        <v>12.566737400014485</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.4131666084932597</v>
+        <v>9.8037716246038151</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.32560741223660639</v>
+        <v>7.8972471048232808</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46895572177066214</v>
+        <v>-0.72279153949377672</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>10.092964065397499</v>
+        <v>7.4901456849999093</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9965292637844279</v>
+        <v>9.3017282502354597</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8151258951028204</v>
+        <v>-2.7481789612622798</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>10.483295459456084</v>
+        <v>-5.9672689611178829</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66880094143097768</v>
+        <v>0.54037650691661732</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9348201156799227</v>
+        <v>4.8178539540689549</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2385735680310983</v>
+        <v>4.2758332194301918</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>10.535243320424435</v>
+        <v>10.238757020415957</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4479461339725788</v>
+        <v>-6.734285198541679</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.154091067029519</v>
+        <v>8.070022226325321</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4974875586971255</v>
+        <v>10.830890509761833</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.5958790801026712</v>
+        <v>12.641721732730673</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9359702536984074</v>
+        <v>7.3335888682228401E-2</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.811462626182422</v>
+        <v>-1.4799998180764895</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>7.029013243131633</v>
+        <v>2.9875332660536777</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.3538826081211908</v>
+        <v>11.875773189836021</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.9149914190397688</v>
+        <v>10.534601289447693</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>10.434657311485179</v>
+        <v>-2.6988504845530841</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5203848089391805</v>
+        <v>9.5732399754298036</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9290275915765509</v>
+        <v>8.0990354622517327</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5116074170292819</v>
+        <v>6.1034307067983242</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2330030343856873</v>
+        <v>10.814482137473473</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7677657788658685</v>
+        <v>8.0977300269775725</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.738880372828342</v>
+        <v>1.814627682898049</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>12.536195602492327</v>
+        <v>-3.6486731235962848</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4949327578112062</v>
+        <v>10.144820852501105</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1895353091612808</v>
+        <v>-1.0173993211984049</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.0025304779127762</v>
+        <v>-4.697610409942472</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8877998949693566</v>
+        <v>-1.5976271910402726</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>11.263782821518738</v>
+        <v>-6.536251392945454</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4282380536670054</v>
+        <v>9.5828168922163641</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7660910483156442</v>
+        <v>11.578784065023221</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0516640551564489</v>
+        <v>-6.4909683258572342</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4465135629327399</v>
+        <v>0.76645356036643086</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.53031591533656375</v>
+        <v>3.3930294154246905</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.8443936301214965</v>
+        <v>-0.52988441165302369</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>3.472769849265708</v>
+        <v>1.4991692845440809</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.5885832139757099</v>
+        <v>9.9408551011424962</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60876152822353724</v>
+        <v>5.4230225425676277</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4474182691616573</v>
+        <v>4.5693673469003606</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.9196066549744639</v>
+        <v>7.4679182507492463</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47541023664726012</v>
+        <v>12.373960640724452</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>11.456580413270547</v>
+        <v>1.5247557627670147</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.435806639632121</v>
+        <v>-2.354649170982027</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.1392551846576593</v>
+        <v>9.2105557767933206</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8537260078450934</v>
+        <v>10.827612085208852</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6204713947536593</v>
+        <v>-1.5321114922456207</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>12.91038752822568</v>
+        <v>4.4986391307506857</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.6675091781055666</v>
+        <v>-5.2064961333887627</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.973194528268623</v>
+        <v>9.3017527589778446</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.717090044987664</v>
+        <v>12.244087130734233</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.74822496198834898</v>
+        <v>1.2430497557631206</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0164214205890358</v>
+        <v>4.4493064191159419</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1890531959565305</v>
+        <v>-6.6481547388134796</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.5439280770422528</v>
+        <v>-4.8974355094998998</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.1084648933914085</v>
+        <v>-1.6023251423378735</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.2788746789447831</v>
+        <v>-3.6033558288769156</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28950352348481267</v>
+        <v>7.2829065284366941</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0200101692596437</v>
+        <v>-5.8038115525879572</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73928979459021171</v>
+        <v>-5.4534957828129169</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>10.546062685141937</v>
+        <v>1.33713186358416</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.1150155625457927</v>
+        <v>9.1758629289109734</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4227627738702484</v>
+        <v>7.5890258980435412</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.3066054119132158</v>
+        <v>7.0928075273426003</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.2987735268605807</v>
+        <v>-3.5022102353942923</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2928573615634615</v>
+        <v>2.8995978045138049</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3772989143899874</v>
+        <v>-1.2401051491070652</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0963164583114597</v>
+        <v>1.3800166141055303</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8820112535708109</v>
+        <v>1.5395360281686035</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7429138953102612</v>
+        <v>5.6563068572086479</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.225708988691355</v>
+        <v>4.3860455737209936</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0595636114283469</v>
+        <v>-4.6592101647406192</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.3513977207379657</v>
+        <v>-2.4611853491715241</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>12.684923466461186</v>
+        <v>1.7933569687504765</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4515363554720651</v>
+        <v>4.5682749065476109</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.4142168547162139</v>
+        <v>10.654212604196132</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.3608527004987989</v>
+        <v>-4.7305331083965108</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3455895983852972</v>
+        <v>-5.8186102086262297</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1440211917641392</v>
+        <v>5.3892719247340644</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9164541367014003</v>
+        <v>9.4530964044613093</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1245092068870406</v>
+        <v>-6.0738884987469497</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>10.776156727459572</v>
+        <v>-1.2307338233827725</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.57879275917372297</v>
+        <v>4.2569135532470295</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2522011295941731</v>
+        <v>7.4465644624157168</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.8498251041925453</v>
+        <v>-0.21187937661428791</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>10.016105710249686</v>
+        <v>5.35364456460821</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8744515503505621</v>
+        <v>3.4933987471353625</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.4326844223548667</v>
+        <v>11.427679998971659</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7564103048112223</v>
+        <v>7.5441866432454106</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1509672023175312</v>
+        <v>-4.4884155158015675</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6869108402569495</v>
+        <v>-4.1457659457186384</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.6891895523608103</v>
+        <v>9.5926769335412096</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3070019707559801</v>
+        <v>-3.9418947814728504</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0947018552829881</v>
+        <v>6.9882682330799835</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6339873987680065</v>
+        <v>-2.3256455943157288</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.30480909096873443</v>
+        <v>-1.7058761214357503</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.0160287546792333</v>
+        <v>1.6328790865715614</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4230087218940071</v>
+        <v>3.725430034578336</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>10.122730819969775</v>
+        <v>-1.5021099736030585</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1051421091087139</v>
+        <v>-5.5042527648782684</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0296793267309283</v>
+        <v>-3.7529579513444493</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4664657146759907E-2</v>
+        <v>-0.80465187467931898</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.6465684514114418</v>
+        <v>-5.6050265755513289</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.5386855329003186</v>
+        <v>2.2603908312528578</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>12.223110202790949</v>
+        <v>12.412006494229122</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.1634042108912968</v>
+        <v>3.5078014815840106</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9045162687438832</v>
+        <v>2.9460805551282014</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.023224771582238</v>
+        <v>6.8329682663516387</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5717609300923385</v>
+        <v>4.524770975941049</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9801638838290074</v>
+        <v>-0.73470814486995373</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0677881924502799</v>
+        <v>-0.56721305564671809</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.270977101707059</v>
+        <v>-2.6299734449748691</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>12.694800895567241</v>
+        <v>9.1464102330365797</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6501932459912432</v>
+        <v>0.33819389143013545</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.0673965731674895</v>
+        <v>12.040122932408348</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>10.493953120221899</v>
+        <v>0.77462237061179451</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>10.052987182053727</v>
+        <v>-5.4197888271099108</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.6970049792329851</v>
+        <v>-5.4904554156155339</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93166738847343389</v>
+        <v>12.967732965145995</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1234147412065525</v>
+        <v>3.6824841603983032</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.52603430306133347</v>
+        <v>-2.5042354428406899</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>12.246605564797694</v>
+        <v>-3.0334525279874285</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2505972368483231</v>
+        <v>-3.6291014218952071</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.32735296548305648</v>
+        <v>-6.4722509121567704</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>12.998370288695682</v>
+        <v>1.304491991079308</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>10.739417541286063</v>
+        <v>-2.0536236115315454</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.0646035062509149</v>
+        <v>-6.6921170705355131</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7867609658525936</v>
+        <v>9.5783071591877338</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0477135823203518</v>
+        <v>5.2755655279634084</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8979947981630687</v>
+        <v>11.743799555505891</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6995506092890995</v>
+        <v>-2.5875189148853055</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5573440801930172</v>
+        <v>3.3703364677992269</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5939683331353507</v>
+        <v>8.8746409109066349</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.9042976195517296</v>
+        <v>-5.7586507241489393</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83812056297251303</v>
+        <v>8.562316796105943</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.51147032523704539</v>
+        <v>-3.0529877114974973</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.970277550374564</v>
+        <v>0.89850279805634337</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.4932082672635705</v>
+        <v>12.515610888161273</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5519023174627851</v>
+        <v>12.196438233195831</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5216603535594473</v>
+        <v>-0.92281701094134583</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.6846500911369713</v>
+        <v>10.599275169186125</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8783999416761539</v>
+        <v>2.6281302366125701</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.8863582516308117</v>
+        <v>1.1524093840007623</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.5720980379050262</v>
+        <v>0.65897270066180358</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.3970559745074427</v>
+        <v>1.6157393643427227</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.6026702196986484</v>
+        <v>-2.2601822497729112</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6167732364749163</v>
+        <v>0.57265531809131076</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4913726075472802</v>
+        <v>10.643708787629919</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2556324664469507</v>
+        <v>9.7147293646267698</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4475920049866104</v>
+        <v>-6.7489641021478786</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1790274556430411</v>
+        <v>9.9702696777502311</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3902410340070155</v>
+        <v>5.8183016169954005</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.53149098059482913</v>
+        <v>3.0271226827792788</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3737036994110969</v>
+        <v>0.80924123970206097</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>10.320439752596577</v>
+        <v>-3.7276204300385878</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1383859418300073</v>
+        <v>2.3017420154495518</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>11.08348533265039</v>
+        <v>-2.6447966759774211</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8309429591008843</v>
+        <v>-4.2460518214966392</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2437634106520736</v>
+        <v>3.3394526584022532</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>11.208115353240984</v>
+        <v>5.4166329279192826</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>12.723932869991888</v>
+        <v>-1.8911724741148959</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>12.34725623647789</v>
+        <v>9.3836073847893111</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6141494445875573</v>
+        <v>10.165906419492622</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6937573367117089</v>
+        <v>12.615743130827575</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>11.554540009599386</v>
+        <v>5.6316002740580497</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.2805396498330719</v>
+        <v>1.6678291731529207</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7222328944091867</v>
+        <v>-4.0422651647871248</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1993255705078418</v>
+        <v>9.941338410601297E-2</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>12.852977681729254</v>
+        <v>8.9746460691636152</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4866260491534451</v>
+        <v>12.751642011895495</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.1278085419492108E-2</v>
+        <v>-4.4661936895487013</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.4970921317727388</v>
+        <v>7.577399660109764</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.1751589222701142</v>
+        <v>7.2963870251377916</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0902762430571808</v>
+        <v>10.148564321940249</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0510571528997517</v>
+        <v>9.9707687367606361</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>11.717394269600387</v>
+        <v>3.6650932817715862</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6520701328627396</v>
+        <v>6.759509198750921</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8725887938932182</v>
+        <v>-2.2766489943508565</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3980175273398707</v>
+        <v>10.41418354335795</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.5358841948477808</v>
+        <v>9.1775375114843669</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>12.175581678292911</v>
+        <v>11.177138732759655</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2938023601040349</v>
+        <v>8.8428412988501179</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.469870312177127</v>
+        <v>4.1220711734958471</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6303220713005615</v>
+        <v>4.4681823841933817</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98479945087727572</v>
+        <v>-3.1612917010781287</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>11.681117448600347</v>
+        <v>-1.2037427575985609</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>6.516250035345168</v>
+        <v>12.025114126002805</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0334902621175495</v>
+        <v>10.656112689682629</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4674730500420239</v>
+        <v>3.5288483307701757</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.13167805112262876</v>
+        <v>-0.86856555523376056</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>11.869900443090419</v>
+        <v>10.416634216592399</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7322462476803686</v>
+        <v>5.0808042909422575</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36720625855549471</v>
+        <v>5.0771334927626288</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3212940702457274</v>
+        <v>-1.3781739849609629</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.1704438038393428</v>
+        <v>2.89611758957688</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.9472083819999622</v>
+        <v>11.757301983916079</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9199216747928851</v>
+        <v>10.685505900490003</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4665092209370254</v>
+        <v>6.7005657407138592</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2134422671639093</v>
+        <v>5.9213084751656364</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4003664080193943</v>
+        <v>7.4950598438376375</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.5698737853109908</v>
+        <v>6.3056209560420751</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.52182142095885276</v>
+        <v>9.254395643398805</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.958867956070625</v>
+        <v>5.424145941749984</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2889174126379714</v>
+        <v>8.2107026462706241</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>12.377897232017254</v>
+        <v>10.839774091079363</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8597328386333078</v>
+        <v>-1.0488734083948463</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1770554159484412</v>
+        <v>11.183242813408562</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.3568859520512366</v>
+        <v>2.4173218376630032</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5640976108958622</v>
+        <v>-1.9161751700076328</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3224656407978941</v>
+        <v>-1.6131542803413801</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.59182441022227739</v>
+        <v>7.1725940234107348</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4402316287076662</v>
+        <v>7.9584686983200186</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3552159699496258</v>
+        <v>7.2446852795612138</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>10.967724815986056</v>
+        <v>-1.9218130904597164</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>11.726304850648617</v>
+        <v>7.5145614326445802</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2132897162679193</v>
+        <v>6.3277917528883467</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.335270311505953</v>
+        <v>-2.3642474001877671</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7273736703922378</v>
+        <v>5.1987826597610489</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/StandardSimplexTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/StandardSimplexTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="1650" windowWidth="27735" windowHeight="12570" activeTab="4"/>
+    <workbookView xWindow="765" yWindow="-75" windowWidth="27735" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Dantzigs Rule 5x6" sheetId="1" r:id="rId1"/>
@@ -781,7 +781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:E28"/>
     </sheetView>
   </sheetViews>
@@ -4554,7 +4554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C17"/>
     </sheetView>
   </sheetViews>
@@ -7460,7 +7460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
@@ -9141,7 +9141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T110"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
@@ -12427,7 +12427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
@@ -12553,1151 +12553,1151 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*20-7</f>
-        <v>-3.8329164439609036</v>
+        <v>-0.16413761811168648</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:K16" ca="1" si="0">RAND()*20-7</f>
-        <v>7.0197041872863046</v>
+        <v>8.0951914371668128</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5391796505867035</v>
+        <v>7.0494508312326474</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9922412889631396</v>
+        <v>8.2896929968039323</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.2787724562050649</v>
+        <v>2.0500265612762938</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4716005779787942</v>
+        <v>-3.3227345844287175</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.306140287907537</v>
+        <v>-5.1726532475432219</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.3497278746342847</v>
+        <v>-1.9778309932070819</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93629899914234116</v>
+        <v>9.9365595264560511</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>11.873475782524128</v>
+        <v>3.5044399916606874</v>
       </c>
       <c r="K1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0554466457979004</v>
+        <v>2.0766642256247447</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:K25" ca="1" si="1">RAND()*20-7</f>
-        <v>7.0695987280056833</v>
+        <v>-5.7123448342965055</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>10.809246728324414</v>
+        <v>-1.7851549959630413</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6391561265207848</v>
+        <v>1.0573363900722015</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7849659153073851</v>
+        <v>2.9033796298874037</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0613787656164959</v>
+        <v>3.5974230995116017</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>12.843128177355734</v>
+        <v>6.8359872814099667</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>12.830742486047626</v>
+        <v>11.22895339462211</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.3181338739700745</v>
+        <v>-6.9415863364254413</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>11.07956807640586</v>
+        <v>5.9206450572558396</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.585771203809184</v>
+        <v>-2.5835581569684489</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>11.075507314811556</v>
+        <v>-2.4185595499940264</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6007350914694172</v>
+        <v>7.6578430050975665</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.2556290566038619</v>
+        <v>2.8232292095695364</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5796387669705556</v>
+        <v>1.1798211996010401</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4154150534370409</v>
+        <v>6.4465923023148051</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.6916272245739927</v>
+        <v>-1.7329945041249672</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.52006663912233897</v>
+        <v>-4.806620876189001</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.9460823711063444</v>
+        <v>11.754297930188063</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9176116872367643</v>
+        <v>7.8826520341517554</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>11.272636935156022</v>
+        <v>1.9339284449543239</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7480455559013262</v>
+        <v>-1.8564178205884829</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7251765557545653</v>
+        <v>-3.7790112845668138</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.54156783336492254</v>
+        <v>-1.832634442831754</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7968019911605797</v>
+        <v>4.7868121812668356</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1843103593521391</v>
+        <v>9.9845035290131072</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2363457787565313</v>
+        <v>11.40528911702123</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3205758134314003</v>
+        <v>4.3305161162756711</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>11.166902978280266</v>
+        <v>8.5087428011487116</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.2851569482155636</v>
+        <v>9.147070324135953</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.564355462222407</v>
+        <v>7.8783634933567637</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7347036127572064</v>
+        <v>-0.59524373781017204</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8275116159282483</v>
+        <v>-4.203429559410564</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.4168588320550768</v>
+        <v>9.6289377913129748E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>11.508457428874298</v>
+        <v>0.68070028571754726</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5079539460841982</v>
+        <v>-5.8019351050153194</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6596729608774723</v>
+        <v>-2.5348681822847929</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2406783386789213</v>
+        <v>-2.3285682381099786</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>12.864241869032373</v>
+        <v>-2.409377665112225</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8025552588957545</v>
+        <v>-1.3368025433063107</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>12.042725683863225</v>
+        <v>-4.7245337695019138</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.6688617162417012</v>
+        <v>-6.8135702296409422</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5397043737896876</v>
+        <v>12.471238149728329</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>12.566737400014485</v>
+        <v>-2.9523366084722529</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8037716246038151</v>
+        <v>11.422196639239271</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8972471048232808</v>
+        <v>10.015078982887928</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.72279153949377672</v>
+        <v>7.3045938974401547</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4901456849999093</v>
+        <v>7.6264340676293703</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3017282502354597</v>
+        <v>4.871770989263311</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.7481789612622798</v>
+        <v>1.0742518092207849</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.9672689611178829</v>
+        <v>-5.6027378298395085</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54037650691661732</v>
+        <v>4.5026378693707532</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8178539540689549</v>
+        <v>2.8252245076693612</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2758332194301918</v>
+        <v>1.3600585107843823</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>10.238757020415957</v>
+        <v>-1.094571628963914</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.734285198541679</v>
+        <v>4.1618421848583953</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>8.070022226325321</v>
+        <v>2.7946962848625496</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>10.830890509761833</v>
+        <v>-5.9859263187539451</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>12.641721732730673</v>
+        <v>11.141708613088678</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3335888682228401E-2</v>
+        <v>-5.1957284273004287</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4799998180764895</v>
+        <v>-2.6594329160727579</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9875332660536777</v>
+        <v>9.0906217393992854</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>11.875773189836021</v>
+        <v>8.1017672923363406</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>10.534601289447693</v>
+        <v>2.8759766367911332</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6988504845530841</v>
+        <v>11.781153828751361</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5732399754298036</v>
+        <v>11.476843402311275</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0990354622517327</v>
+        <v>8.6740019713818217</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1034307067983242</v>
+        <v>-6.615606754023835</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>10.814482137473473</v>
+        <v>10.668685561967038</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0977300269775725</v>
+        <v>-4.7770404227589456</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.814627682898049</v>
+        <v>6.9681838539400527</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.6486731235962848</v>
+        <v>-2.9014969134468416</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>10.144820852501105</v>
+        <v>0.13645583639219705</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0173993211984049</v>
+        <v>8.9565573542802959</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.697610409942472</v>
+        <v>4.2410893826684664</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5976271910402726</v>
+        <v>-0.65007707008891913</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.536251392945454</v>
+        <v>-3.0451694925104649</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5828168922163641</v>
+        <v>7.1916835742697778</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>11.578784065023221</v>
+        <v>5.7475879759710331</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.4909683258572342</v>
+        <v>-5.5605813839700868</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76645356036643086</v>
+        <v>11.566686408733936</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3930294154246905</v>
+        <v>-5.7598193555836978</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.52988441165302369</v>
+        <v>4.6839678128229902</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4991692845440809</v>
+        <v>-6.7225027504414152</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9408551011424962</v>
+        <v>-0.98091344283562343</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4230225425676277</v>
+        <v>-2.5371712155403348</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5693673469003606</v>
+        <v>2.2182767536898869</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4679182507492463</v>
+        <v>9.0889536092897352</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>12.373960640724452</v>
+        <v>4.0631338446384362</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5247557627670147</v>
+        <v>1.778706049222798</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.354649170982027</v>
+        <v>10.068553813525767</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2105557767933206</v>
+        <v>12.697744477418432</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>10.827612085208852</v>
+        <v>5.1092527347805543</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5321114922456207</v>
+        <v>10.837900833384857</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4986391307506857</v>
+        <v>-1.2131816122608878</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.2064961333887627</v>
+        <v>-3.8283103307278803</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3017527589778446</v>
+        <v>-2.1895491878252331</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>12.244087130734233</v>
+        <v>10.855339787809527</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2430497557631206</v>
+        <v>-6.9864275647095324</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4493064191159419</v>
+        <v>12.884047931644972</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.6481547388134796</v>
+        <v>-2.4855789456623611</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.8974355094998998</v>
+        <v>3.7725942318823602</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.6023251423378735</v>
+        <v>9.7071669762745287</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.6033558288769156</v>
+        <v>8.1273703337470167</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2829065284366941</v>
+        <v>3.6376488260599942</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.8038115525879572</v>
+        <v>9.5508537916897289</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.4534957828129169</v>
+        <v>2.5081204937039594</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.33713186358416</v>
+        <v>12.934875234903021</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1758629289109734</v>
+        <v>4.0415429953860418</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5890258980435412</v>
+        <v>4.4078335501107695</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0928075273426003</v>
+        <v>-0.42796877613107576</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.5022102353942923</v>
+        <v>-3.9972723176153973</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8995978045138049</v>
+        <v>7.599543266337891</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2401051491070652</v>
+        <v>6.4397879493175392</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3800166141055303</v>
+        <v>-1.5852944464115737</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5395360281686035</v>
+        <v>-1.9001103876583141</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6563068572086479</v>
+        <v>0.52473514157208712</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3860455737209936</v>
+        <v>-1.7796352304959999</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.6592101647406192</v>
+        <v>4.4171009343390821</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4611853491715241</v>
+        <v>-1.4169802592854523</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7933569687504765</v>
+        <v>0.38994524640411754</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5682749065476109</v>
+        <v>-1.1851765595332235</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>10.654212604196132</v>
+        <v>12.950291871289938</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7305331083965108</v>
+        <v>0.72976442802355557</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.8186102086262297</v>
+        <v>10.673584739019152</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3892719247340644</v>
+        <v>8.3516996157057033</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4530964044613093</v>
+        <v>12.652022435535301</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.0738884987469497</v>
+        <v>3.4063591941297346</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2307338233827725</v>
+        <v>5.1160130521269576</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2569135532470295</v>
+        <v>6.4400185780503971</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4465644624157168</v>
+        <v>2.6266358456684227</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.21187937661428791</v>
+        <v>1.2120232334318288</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.35364456460821</v>
+        <v>3.1492784934102147</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4933987471353625</v>
+        <v>-3.9461416594628318E-2</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>11.427679998971659</v>
+        <v>-2.2950892019557338</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5441866432454106</v>
+        <v>8.9973368676740755</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.4884155158015675</v>
+        <v>7.6878868299127952</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.1457659457186384</v>
+        <v>1.8639077857194657</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5926769335412096</v>
+        <v>-4.1156903343400408</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.9418947814728504</v>
+        <v>2.4337807317578974</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9882682330799835</v>
+        <v>-4.1736520636062444</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.3256455943157288</v>
+        <v>-4.9390797889776827</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7058761214357503</v>
+        <v>10.058499108309693</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6328790865715614</v>
+        <v>8.5715325353848666</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>3.725430034578336</v>
+        <v>1.7686872745986459</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5021099736030585</v>
+        <v>8.7812658219999964</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.5042527648782684</v>
+        <v>-4.329006476143693</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.7529579513444493</v>
+        <v>-4.9779637551939757</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.80465187467931898</v>
+        <v>-1.1318311786730844</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.6050265755513289</v>
+        <v>10.801414728838218</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2603908312528578</v>
+        <v>9.5389067736936184</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>12.412006494229122</v>
+        <v>3.8100038992901144</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5078014815840106</v>
+        <v>3.4190863544180505</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9460805551282014</v>
+        <v>11.846762949005516</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8329682663516387</v>
+        <v>11.898122295152287</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>4.524770975941049</v>
+        <v>-4.2560289907473585</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.73470814486995373</v>
+        <v>11.408866127127283</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.56721305564671809</v>
+        <v>8.582719434689265</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6299734449748691</v>
+        <v>-6.6600026191645298</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1464102330365797</v>
+        <v>4.9898704907918834</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33819389143013545</v>
+        <v>1.1907377686536584</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>12.040122932408348</v>
+        <v>-6.0106345332147448</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77462237061179451</v>
+        <v>6.1125855659532427</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.4197888271099108</v>
+        <v>-1.2988974336042096</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.4904554156155339</v>
+        <v>8.7287676270299208</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>12.967732965145995</v>
+        <v>3.8652765033503211</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6824841603983032</v>
+        <v>-6.7016832964312822</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5042354428406899</v>
+        <v>-3.0221579255478574</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.0334525279874285</v>
+        <v>5.823841440940015</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.6291014218952071</v>
+        <v>0.19448184142275515</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.4722509121567704</v>
+        <v>-6.6657356046612435</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.304491991079308</v>
+        <v>-2.0255765195606017</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0536236115315454</v>
+        <v>-1.9991701855721216</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.6921170705355131</v>
+        <v>-3.1837989266136195</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5783071591877338</v>
+        <v>9.911023462228588</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2755655279634084</v>
+        <v>5.5554138121950061</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>11.743799555505891</v>
+        <v>7.316500346950253</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5875189148853055</v>
+        <v>11.605189220865697</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3703364677992269</v>
+        <v>10.698052221317823</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8746409109066349</v>
+        <v>-3.0231531548612494</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.7586507241489393</v>
+        <v>0.5646663675227499</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>8.562316796105943</v>
+        <v>0.30148730304966964</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.0529877114974973</v>
+        <v>-1.0833643399268489</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89850279805634337</v>
+        <v>12.520154035655942</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>12.515610888161273</v>
+        <v>9.612911039894346</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>12.196438233195831</v>
+        <v>-5.7282642153096512</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.92281701094134583</v>
+        <v>4.0223966417557406</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>10.599275169186125</v>
+        <v>1.4703141009923915</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6281302366125701</v>
+        <v>6.2842519708805362</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1524093840007623</v>
+        <v>6.0048169988972191</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65897270066180358</v>
+        <v>10.400557952548489</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6157393643427227</v>
+        <v>6.198495360605385</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.2601822497729112</v>
+        <v>5.2972434222556224</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57265531809131076</v>
+        <v>-5.5988916900396557</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>10.643708787629919</v>
+        <v>6.5481667122075855</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7147293646267698</v>
+        <v>3.4116626180844918</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.7489641021478786</v>
+        <v>-2.9158690332829451</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9702696777502311</v>
+        <v>-3.3721811850882326</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8183016169954005</v>
+        <v>2.4728894176695029</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0271226827792788</v>
+        <v>-1.2772785158124682</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80924123970206097</v>
+        <v>9.3755209463358078</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.7276204300385878</v>
+        <v>0.69250795902323325</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3017420154495518</v>
+        <v>7.7725535492790385</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.6447966759774211</v>
+        <v>9.6286619271979639</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.2460518214966392</v>
+        <v>4.4397249538086072</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3394526584022532</v>
+        <v>-4.3928431252956672</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4166329279192826</v>
+        <v>-0.24053337000241193</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.8911724741148959</v>
+        <v>-3.1554743526096867</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3836073847893111</v>
+        <v>0.37273442210198482</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>10.165906419492622</v>
+        <v>-3.7969127625375392</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>12.615743130827575</v>
+        <v>12.284985208224448</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6316002740580497</v>
+        <v>-1.3281787300373331</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6678291731529207</v>
+        <v>-4.4823016274926735</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.0422651647871248</v>
+        <v>8.106317170595208</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>9.941338410601297E-2</v>
+        <v>-2.3195374472782824</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9746460691636152</v>
+        <v>10.206370761482038</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>12.751642011895495</v>
+        <v>11.054353960493383</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.4661936895487013</v>
+        <v>11.745448902907601</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>7.577399660109764</v>
+        <v>1.4789032197022856</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2963870251377916</v>
+        <v>-5.7965091787305782</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="1"/>
-        <v>10.148564321940249</v>
+        <v>5.3142369167891079</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9707687367606361</v>
+        <v>12.422387697320215</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6650932817715862</v>
+        <v>6.0945862489614946</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>6.759509198750921</v>
+        <v>10.405563114908318</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.2766489943508565</v>
+        <v>10.851910937184581</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>10.41418354335795</v>
+        <v>-0.17693640428134749</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1775375114843669</v>
+        <v>-4.8582389691066012</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>11.177138732759655</v>
+        <v>4.9320685757015799</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8428412988501179</v>
+        <v>9.3200416425268315</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1220711734958471</v>
+        <v>0.52163296388564007</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4681823841933817</v>
+        <v>8.8862013633172872</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.1612917010781287</v>
+        <v>5.8585346710565673</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2037427575985609</v>
+        <v>2.15178242441125</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>12.025114126002805</v>
+        <v>9.0739203500525853</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>10.656112689682629</v>
+        <v>2.7235975535201806</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5288483307701757</v>
+        <v>4.0714980895733603</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.86856555523376056</v>
+        <v>-4.2054879570111252</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>10.416634216592399</v>
+        <v>-6.7210063561429756</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0808042909422575</v>
+        <v>10.968356609390895</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0771334927626288</v>
+        <v>-1.3718309856197068</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3781739849609629</v>
+        <v>3.5816957716895494</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>2.89611758957688</v>
+        <v>-5.4636620460480589</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="1"/>
-        <v>11.757301983916079</v>
+        <v>4.5435763963949594</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>10.685505900490003</v>
+        <v>-4.3888917845968933</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7005657407138592</v>
+        <v>9.2177121307717513</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9213084751656364</v>
+        <v>8.4683876489453489</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4950598438376375</v>
+        <v>-3.0434809039071946</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3056209560420751</v>
+        <v>4.0217512906910198</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>9.254395643398805</v>
+        <v>6.9709730784305783</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>5.424145941749984</v>
+        <v>10.640819880430271</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2107026462706241</v>
+        <v>9.0542550866365943</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>10.839774091079363</v>
+        <v>-4.6111291531029268</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0488734083948463</v>
+        <v>-4.6217905494634568</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="1"/>
-        <v>11.183242813408562</v>
+        <v>0.70342597590495171</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4173218376630032</v>
+        <v>-2.0646347755619292</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.9161751700076328</v>
+        <v>-0.10416792086744664</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.6131542803413801</v>
+        <v>2.478829656878915</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1725940234107348</v>
+        <v>-6.3643433361359829</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9584686983200186</v>
+        <v>5.7370259139769164</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2446852795612138</v>
+        <v>9.4183202959751213</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.9218130904597164</v>
+        <v>-5.3576520932546439</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5145614326445802</v>
+        <v>-2.5497313474161274</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3277917528883467</v>
+        <v>2.8534119834942491</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3642474001877671</v>
+        <v>-3.2637250174599934</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1987826597610489</v>
+        <v>10.233756353722491</v>
       </c>
     </row>
   </sheetData>
